--- a/spec/fixtures/access_learn.xlsx
+++ b/spec/fixtures/access_learn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/projects/marc_liberation/spec/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colec/projects/marc_liberation/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF047AB-C1B6-5543-8721-A0E23F02C3DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744297F7-8A59-3C47-A684-4B2935CC9D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="620" windowWidth="33460" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1_1" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="#0"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -465,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -527,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +917,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="4">
-        <v>999999999</v>
+        <v>999999998</v>
       </c>
       <c r="I6" s="9">
         <v>44021.504513879998</v>
@@ -1103,7 +1107,7 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="31">
         <v>10001111</v>
       </c>
       <c r="I7" s="9">
@@ -1139,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="4">
-        <v>999999999</v>
+        <v>999999997</v>
       </c>
       <c r="I8" s="9">
         <v>44021.51917824</v>
@@ -1174,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="4">
-        <v>999999999</v>
+        <v>999999996</v>
       </c>
       <c r="I9" s="9">
         <v>43997.709930550001</v>
